--- a/modules/test_data/railway_parameters.xlsx
+++ b/modules/test_data/railway_parameters.xlsx
@@ -7,19 +7,21 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mob" sheetId="1" r:id="rId1"/>
-    <sheet name="inf" sheetId="2" r:id="rId2"/>
-    <sheet name="deriv" sheetId="3" r:id="rId3"/>
+    <sheet name="mobility" sheetId="1" r:id="rId1"/>
+    <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
+    <sheet name="time" sheetId="5" r:id="rId3"/>
+    <sheet name="derivation" sheetId="3" r:id="rId4"/>
+    <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mob!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -75,12 +77,6 @@
     <t>Time a train is parked at origin or destination (hr).</t>
   </si>
   <si>
-    <t>Loading capacity of a wagon (ton).</t>
-  </si>
-  <si>
-    <t>Towing capacity of a locomotive (ton).</t>
-  </si>
-  <si>
     <t>Time in a year a wagon is available to be used (hr/year).</t>
   </si>
   <si>
@@ -280,6 +276,108 @@
   </si>
   <si>
     <t>Maximum distance density (gross ton) supported by maximum distance turnouts (ton). Above this density, more turnouts are needed (distance between them is less).</t>
+  </si>
+  <si>
+    <t>max_derivation_1</t>
+  </si>
+  <si>
+    <t>max_derivation_2</t>
+  </si>
+  <si>
+    <t>max_derivation_3</t>
+  </si>
+  <si>
+    <t>max_derivation_4</t>
+  </si>
+  <si>
+    <t>max_derivation_5</t>
+  </si>
+  <si>
+    <t>regroup_1</t>
+  </si>
+  <si>
+    <t>regroup_2</t>
+  </si>
+  <si>
+    <t>regroup_3</t>
+  </si>
+  <si>
+    <t>regroup_4</t>
+  </si>
+  <si>
+    <t>regroup_5</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Towing capacity of a locomotive (ton). - Using 0,56 loading factor to account for empty returning locomotives.</t>
+  </si>
+  <si>
+    <t>Loading capacity of a wagon (ton). - Using 0,56 loading factor to account for empty returning wagons.</t>
+  </si>
+  <si>
+    <t>deposit_cost_per_day_ton</t>
+  </si>
+  <si>
+    <t>Cost of hold a ton of freight in a deposit one day (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>ratio_truck_to_train_travel_time</t>
+  </si>
+  <si>
+    <t>Ratio of truck travel time to train travel time (coeff). Truck is always faster than train.</t>
+  </si>
+  <si>
+    <t>cost_of_immobilized_ton</t>
+  </si>
+  <si>
+    <t>Its the opportunity cost of having value immobilized over time, calculated as day interest rate * average freight value of a ton (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>short_freight_to_train</t>
+  </si>
+  <si>
+    <t>Average cost of transport from door to train station (USD/ton).</t>
+  </si>
+  <si>
+    <t>loading_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of average net loading over total capacity per train or wagon (coeff). It reflects empty trains coming back to origin after doing a service.</t>
+  </si>
+  <si>
+    <t>min_weekly_freq</t>
+  </si>
+  <si>
+    <t>Minimum trains per week that have to be to service an od pair (number).</t>
   </si>
 </sst>
 </file>
@@ -656,10 +754,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +802,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -715,13 +813,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +830,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +841,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +852,7 @@
         <v>8672</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +863,7 @@
         <v>6570</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +882,7 @@
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,139 +893,161 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>6463.835901091652</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>154445.87620922364</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>100170</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>2487.6562500000005</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>30.416666666666668</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <v>700000</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,123 +1085,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,18 +1212,18 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1118,10 +1236,88 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0.11853075454128587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>1.1752104423052856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1345,7 @@
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,51 +1356,195 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5">
         <v>120000</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
